--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2272302.61749909</v>
+        <v>2270415.035982688</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>314.0105115420274</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>108.2198021316252</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>50.4315177721688</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>159.3199338524827</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>332.3986578799465</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.24537842269848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>163.9206648785247</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>35.12287234938797</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>94.16481274941239</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>206.806426921486</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>114.9309043193591</v>
+        <v>39.11561436815826</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002171</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>26.97444673954876</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2287,13 +2287,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>199.8217265445589</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>118.2422920270586</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>163.9563538534661</v>
       </c>
       <c r="U25" t="n">
-        <v>262.2720717483045</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>96.84207451769299</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>37.63559668982813</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>112.043564470071</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.4122163896555</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801221</v>
+        <v>91.23070601801231</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897917</v>
+        <v>93.71057173897927</v>
       </c>
       <c r="I31" t="n">
-        <v>41.90734288192887</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523584</v>
+        <v>54.76109577523595</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550464</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298324</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700205</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604803</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>111.8765232158091</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3044,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
         <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373793</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463133</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463133</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1345.301239238533</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1345.301239238533</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
         <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>404.5276295785111</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U4" t="n">
-        <v>404.5276295785111</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V4" t="n">
-        <v>404.5276295785111</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>404.5276295785111</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>404.5276295785111</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>962.9693282917581</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C5" t="n">
-        <v>594.0068113513464</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D5" t="n">
-        <v>235.7411127445959</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.56916835588</v>
+        <v>1714.263756178945</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>712.7296120622943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>543.7934291343875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>712.7296120622943</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>609.3508327416157</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C8" t="n">
-        <v>240.388315801204</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D8" t="n">
-        <v>240.388315801204</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2430.46526502512</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2430.46526502512</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>2099.402377681549</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1746.633722411435</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.090004781549</v>
+        <v>1373.167964150355</v>
       </c>
       <c r="Y8" t="n">
-        <v>995.9506728057374</v>
+        <v>983.0286321745434</v>
       </c>
     </row>
     <row r="9">
@@ -4893,7 +4893,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4993,19 +4993,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5039,7 +5039,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="E13" t="n">
         <v>97.21709146028584</v>
@@ -5200,10 +5200,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>192.3330639344398</v>
       </c>
     </row>
     <row r="14">
@@ -5258,43 +5258,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5413,37 +5413,37 @@
         <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028603</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028603</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028603</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028603</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028603</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028603</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028603</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1271.749344574921</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T16" t="n">
-        <v>1271.749344574921</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U16" t="n">
-        <v>1271.749344574921</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V16" t="n">
-        <v>1017.064856369034</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>727.647686332073</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,34 +5498,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5558,7 +5558,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>378.1030765138945</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5671,13 +5671,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471194</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5741,37 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>303.4575213834697</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>266.1532743881929</v>
       </c>
       <c r="C22" t="n">
         <v>97.21709146028584</v>
@@ -5893,25 +5893,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799364</v>
@@ -5923,37 +5923,37 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119727</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119727</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119727</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1186.00103929694</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>1186.00103929694</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W22" t="n">
-        <v>896.5838692599799</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X22" t="n">
-        <v>668.5943183619626</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.8017392184324</v>
+        <v>266.1532743881929</v>
       </c>
     </row>
     <row r="23">
@@ -5987,7 +5987,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514085</v>
@@ -6072,19 +6072,19 @@
         <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619856</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>542.1367719529251</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C25" t="n">
-        <v>542.1367719529251</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6148,19 +6148,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="U25" t="n">
-        <v>1233.994985963655</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="V25" t="n">
-        <v>1233.994985963655</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="W25" t="n">
-        <v>944.5778159266948</v>
+        <v>843.9666117966292</v>
       </c>
       <c r="X25" t="n">
-        <v>944.5778159266948</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="Y25" t="n">
-        <v>723.7852367831647</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
@@ -6221,7 +6221,7 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6233,22 +6233,22 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>195.0373687508848</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765189</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706321</v>
+        <v>933.236668829393</v>
       </c>
       <c r="W28" t="n">
-        <v>531.3977182706321</v>
+        <v>643.8194987924323</v>
       </c>
       <c r="X28" t="n">
-        <v>303.4081673726148</v>
+        <v>415.8299478944149</v>
       </c>
       <c r="Y28" t="n">
-        <v>265.3924131404652</v>
+        <v>195.0373687508848</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,43 +6449,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542165</v>
+        <v>491.557554709496</v>
       </c>
       <c r="C31" t="n">
-        <v>326.3571123076802</v>
+        <v>378.3822370629597</v>
       </c>
       <c r="D31" t="n">
-        <v>326.3571123076802</v>
+        <v>284.0264629319946</v>
       </c>
       <c r="E31" t="n">
-        <v>234.2048840066576</v>
+        <v>191.874234630972</v>
       </c>
       <c r="F31" t="n">
-        <v>234.2048840066576</v>
+        <v>191.874234630972</v>
       </c>
       <c r="G31" t="n">
-        <v>234.2048840066576</v>
+        <v>191.874234630972</v>
       </c>
       <c r="H31" t="n">
-        <v>139.5477408359716</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864669</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933496</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667505</v>
+        <v>671.45090536675</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962047</v>
+        <v>997.668872196204</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353691</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021645</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056072</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899269</v>
+        <v>1880.811824899268</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096192</v>
+        <v>1736.652680096191</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1568.628130167068</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1335.260356661997</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1136.33673373748</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818917</v>
+        <v>902.6804289818901</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652451</v>
+        <v>730.4517433652434</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030856</v>
+        <v>617.4451542583652</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6680,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2379.156885434021</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108342</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229683</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506736</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083216</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504523</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025264</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859418</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045219</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010328</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,40 +6947,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083209</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,19 +7184,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2497.969180129611</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,10 +7333,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7400,19 +7400,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,19 +7421,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,25 +7658,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850452</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7822,16 +7822,16 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>165.9802687929762</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,19 +9003,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>94.13752431970619</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,13 +9243,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>91.23759968302147</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>15.83804904622875</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>234.4116509503166</v>
+        <v>369.0893880493733</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>50.62661940943656</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10191,28 +10191,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>76.43196988338565</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>148.1350559470642</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>392.1113620226436</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>38.86002301949857</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,16 +11385,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>272.8719470256804</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>52.26914989715677</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>79.43092547709136</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23701,16 +23701,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.98990566424413</v>
+        <v>158.805195615445</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23938,13 +23938,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338612</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>259.2629056590286</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>86.41562585401842</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>100.3423613250362</v>
       </c>
     </row>
     <row r="23">
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>57.59120720492314</v>
       </c>
       <c r="U25" t="n">
-        <v>23.9652806502728</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>70.40474658093484</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>180.9490566622666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896554</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437429</v>
+        <v>90.21779139437439</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>13.30864595378617</v>
+        <v>55.21598883571514</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>51.50487350772884</v>
       </c>
     </row>
     <row r="32">
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-9.947598300641403e-13</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454835</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>842547.8393454837</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>875713.3023213622</v>
+        <v>875713.3023213621</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049991</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327927</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.6836327928</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327927</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="I2" t="n">
         <v>547440.6836327927</v>
       </c>
       <c r="J2" t="n">
-        <v>547440.6836327928</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="K2" t="n">
-        <v>569550.9922833786</v>
+        <v>569550.9922833784</v>
       </c>
       <c r="L2" t="n">
-        <v>574729.2389049981</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="M2" t="n">
         <v>574729.2389049985</v>
       </c>
       <c r="N2" t="n">
-        <v>574729.2389049976</v>
+        <v>574729.2389049979</v>
       </c>
       <c r="O2" t="n">
-        <v>574729.2389049976</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="P2" t="n">
-        <v>574729.2389049976</v>
+        <v>574729.2389049979</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.60530284548</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086697</v>
+        <v>10342.90680086704</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.60530284549</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="H4" t="n">
         <v>22174.60758687073</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22174.60758687072</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106722</v>
+        <v>40339.23010106718</v>
       </c>
       <c r="L4" t="n">
+        <v>44593.3948281912</v>
+      </c>
+      <c r="M4" t="n">
+        <v>44593.3948281912</v>
+      </c>
+      <c r="N4" t="n">
+        <v>44593.39482819118</v>
+      </c>
+      <c r="O4" t="n">
+        <v>44593.3948281912</v>
+      </c>
+      <c r="P4" t="n">
         <v>44593.39482819119</v>
-      </c>
-      <c r="M4" t="n">
-        <v>44593.39482819117</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44593.3948281912</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44593.39482819119</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26485,31 +26485,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-263730.5861594793</v>
+        <v>-263730.5861594795</v>
       </c>
       <c r="C6" t="n">
         <v>326237.2930550647</v>
       </c>
       <c r="D6" t="n">
-        <v>326237.2930550647</v>
+        <v>326237.2930550649</v>
       </c>
       <c r="E6" t="n">
-        <v>-91881.28637969081</v>
+        <v>-91978.74550566322</v>
       </c>
       <c r="F6" t="n">
-        <v>433278.7500972054</v>
+        <v>433181.290971233</v>
       </c>
       <c r="G6" t="n">
-        <v>433278.7500972052</v>
+        <v>433181.2909712333</v>
       </c>
       <c r="H6" t="n">
-        <v>433278.7500972054</v>
+        <v>433181.2909712328</v>
       </c>
       <c r="I6" t="n">
-        <v>433278.7500972054</v>
+        <v>433181.2909712332</v>
       </c>
       <c r="J6" t="n">
-        <v>256855.5309046125</v>
+        <v>256758.0717786397</v>
       </c>
       <c r="K6" t="n">
-        <v>388420.9483492431</v>
+        <v>388402.4546113086</v>
       </c>
       <c r="L6" t="n">
-        <v>422077.8314559145</v>
+        <v>422077.8314559151</v>
       </c>
       <c r="M6" t="n">
         <v>297619.7230229448</v>
       </c>
       <c r="N6" t="n">
-        <v>432420.738256781</v>
+        <v>432420.7382567814</v>
       </c>
       <c r="O6" t="n">
-        <v>432420.738256781</v>
+        <v>432420.7382567818</v>
       </c>
       <c r="P6" t="n">
-        <v>388258.1329539354</v>
+        <v>388258.1329539359</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26753,10 +26753,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26765,19 +26765,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108371</v>
+        <v>12.9286335010838</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855686</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855685</v>
       </c>
     </row>
     <row r="3">
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68.72333012145322</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27588,10 +27588,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>116.8153033264591</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>235.8503564698089</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>222.6104362197791</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>53.8392807761071</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>22.54869530067504</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>203.3392749293963</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>218.0097051937371</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>181.3254480082698</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>96.68503059263361</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28813,13 +28813,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855685</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>499.1748421909892</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>427.332097717719</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35744,10 +35744,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>241.8130382709607</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415663</v>
@@ -35978,7 +35978,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>166.413487634168</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>483.6693559063409</v>
+        <v>618.3470930053976</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
@@ -36674,25 +36674,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>361.0509964599028</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,10 +36765,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187475</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>358.7956721244938</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412247</v>
+        <v>67.71102679412238</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584674</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084853</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341604</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491598</v>
+        <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403576</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004317</v>
+        <v>94.4289566004316</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>236.1480887321383</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>674.4750642637517</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>126.8730558045727</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>693.6972596887384</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>555.2356492667885</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
